--- a/DSA/Week_wise_plan.xlsx
+++ b/DSA/Week_wise_plan.xlsx
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1062,7 +1062,7 @@
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.6640625" customWidth="1"/>
     <col min="8" max="8" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
